--- a/results/DecisionTreeClassifier_tpesearch-train_df.xlsx
+++ b/results/DecisionTreeClassifier_tpesearch-train_df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6823529411764706</v>
+        <v>0.6829268292682926</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8043478260869565</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7326732673267325</v>
+        <v>0.75</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.7204301075268817</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7106845513413507</v>
+        <v>0.7161410018552876</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7179425837320574</v>
+        <v>0.7229665071770335</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7075131042516016</v>
+        <v>0.7164634146341463</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7278057951120527</v>
+        <v>0.7307239611387076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7121122738459804</v>
+        <v>0.7225937581956465</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5813953488372093</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6172839506172839</v>
+        <v>0.6341463414634148</v>
       </c>
       <c r="E7" t="n">
         <v>38</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.74</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="C8" t="n">
         <v>0.6727272727272727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7047619047619048</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="E8" t="n">
         <v>55</v>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6606976744186046</v>
+        <v>0.6730055658627088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6653110047846891</v>
+        <v>0.6784688995215311</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6610229276895944</v>
+        <v>0.6728424015009382</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6751937984496125</v>
+        <v>0.6880124483811121</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6690182245737802</v>
+        <v>0.6799158748411306</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="C22" t="n">
-        <v>0.631578947368421</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8909090909090909</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8305084745762712</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.6989247311827957</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.788888888888889</v>
+        <v>0.7127110694183865</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7612440191387559</v>
+        <v>0.7169856459330144</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7681954137587239</v>
+        <v>0.6986111111111111</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7868578255675029</v>
+        <v>0.734017228509754</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7795859732630066</v>
+        <v>0.7003882915173238</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>

--- a/results/DecisionTreeClassifier_tpesearch-train_df.xlsx
+++ b/results/DecisionTreeClassifier_tpesearch-train_df.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6829268292682926</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7959183673469388</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>0.7391304347826088</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7161410018552876</v>
+        <v>0.7430555555555556</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7229665071770335</v>
+        <v>0.7435064935064934</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7164634146341463</v>
+        <v>0.7419056429232193</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7307239611387076</v>
+        <v>0.7449223416965354</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7225937581956465</v>
+        <v>0.7420548476619618</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6341463414634148</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7551020408163265</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6730055658627088</v>
+        <v>0.6865079365079365</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6784688995215311</v>
+        <v>0.6307977736549165</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6728424015009382</v>
+        <v>0.6097902097902097</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6880124483811121</v>
+        <v>0.6824543437446663</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6799158748411306</v>
+        <v>0.6161064741709903</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5609756097560976</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5822784810126583</v>
+        <v>0.7358490566037734</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6915887850467289</v>
+        <v>0.65</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.6989247311827957</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6362570356472796</v>
+        <v>0.7032163742690059</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6389952153110048</v>
+        <v>0.6934137291280149</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6369336330296936</v>
+        <v>0.6929245283018868</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6500181565091085</v>
+        <v>0.702194554486575</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6469243597424851</v>
+        <v>0.6952322986406978</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7</v>
+        <v>0.6304347826086958</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.803921568627451</v>
+        <v>0.6</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7735849056603775</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6344086021505376</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.6372093023255814</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7411483253588517</v>
+        <v>0.6368274582560296</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7367924528301888</v>
+        <v>0.6343663274745607</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7478389205144423</v>
+        <v>0.6392098024506127</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7435179549604384</v>
+        <v>0.6341549540946755</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5961538461538461</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.7747747747747746</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8292682926829268</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7311827956989247</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7127110694183865</v>
+        <v>0.75</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7169856459330144</v>
+        <v>0.7228664192949907</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6986111111111111</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.734017228509754</v>
+        <v>0.7469649670482137</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7003882915173238</v>
+        <v>0.7236268526591106</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
